--- a/ObjectOrientedProgramming/WinApp.InventoryWMS/INVENTORY.WinApp/bin/Release/BAOCAO/EXCEL/BM_NhapXuatChiTiet.xlsx
+++ b/ObjectOrientedProgramming/WinApp.InventoryWMS/INVENTORY.WinApp/bin/Release/BAOCAO/EXCEL/BM_NhapXuatChiTiet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\MTInventoryTinhBotSan\Code\MTIMS.WinApp\BAOCAO\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Working\GitHub\MTWarehouseOOP\INVENTORY.WinApp\BAOCAO\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -59,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -214,12 +214,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -252,6 +246,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -541,7 +541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="9" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="5" width="15.7109375" customWidth="1"/>
@@ -553,82 +553,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -672,7 +672,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
@@ -684,76 +684,76 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="8"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="9"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
     </row>
     <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
     </row>
     <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
+      <c r="A15" s="8"/>
     </row>
     <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
+      <c r="A16" s="8"/>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
+      <c r="A17" s="8"/>
     </row>
     <row r="18" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
+      <c r="A18" s="8"/>
     </row>
     <row r="19" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
     </row>
     <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
+      <c r="A20" s="8"/>
     </row>
     <row r="21" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10"/>
+      <c r="A21" s="8"/>
     </row>
     <row r="22" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10"/>
+      <c r="A23" s="8"/>
     </row>
     <row r="24" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
     </row>
     <row r="25" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
     </row>
     <row r="26" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
+      <c r="A26" s="8"/>
     </row>
     <row r="27" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10"/>
+      <c r="A27" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A12:I12"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A12:I12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0" footer="0"/>
